--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritsumei365-my.sharepoint.com/personal/is0621vi_ed_ritsumei_ac_jp/Documents/School Festival/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFF13D02-0875-416E-BBCF-231265C53346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87ECDFC-04D4-4729-8A8A-3CDB85742B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="s7U+Xl+6N4BzFAVz+FYu5l24nzFbeRcpO0A0DFNAhtkmhnkBmBZYGyDRiqCXshmwZTmmfr7vgbnAT9Y3s/Uv5A==" workbookSaltValue="S431dTEoBGBr07prCdDPeQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB0ACF00-AB06-4DC2-B43E-F7FAF7CADAC7}"/>
@@ -1369,7 +1369,7 @@
   <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1658,7 +1658,7 @@
       <c r="D21" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vDsvIzSTEilmssNwoGWicAKpyKEO/wUobAkaXYEyP2TrXgaKgE1+0oOcqqUKqTMTFNbCvKEI7vssgRRdrEKj7g==" saltValue="cSqxbN+gO8YEZOkgIcc0bw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OSJRta4xYOcCtUkH/pp5oHBoopJw8H91g5c/0EWClSe09A0k3SSQfF7mNpBTAxC00yRv3lGUjtDiVPrKBNTkiQ==" saltValue="xJzHyOZ40gVhxk3GPzRK7A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="vbVlqwhbnCbxSJ7vjrCKJQ7jn9TfQigHVV+Wnybln+vYP6D+XM6JC6QgFcaV6axquRjQ1C87othapf7cA/OczQ==" saltValue="pMS0FHW6McxvPeR7un7KQw==" spinCount="100000" sqref="B3:D3" name="個人情報"/>
   </protectedRanges>
